--- a/24-11_Contributions.xlsx
+++ b/24-11_Contributions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardonpa/Library/CloudStorage/GoogleDrive-ricardo.npa@gmail.com/Shared drives/Development/Codes/ULTERA-contribute-rdamaral/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A98720-0481-4B4C-B953-CB7587A52D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBF3939-6F9E-F440-B31D-87FB7E8F4CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,9 +473,6 @@
     <t>Ball milled for 30 h and pressed at 10 MPa. Further compressed in a large volume cubic anvil with a pressure of 5 GPa at T = 1500 C and 0.5 h. Slowly cooled down to RT.</t>
   </si>
   <si>
-    <t>BCC1+BCC2</t>
-  </si>
-  <si>
     <t>V Nb Mo Ta W</t>
   </si>
   <si>
@@ -591,6 +588,9 @@
   </si>
   <si>
     <t>T4</t>
+  </si>
+  <si>
+    <t>BCC+BCC</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1271,6 +1271,33 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1319,39 +1346,30 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1635,15 +1653,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K178" sqref="K178"/>
+    <sheetView tabSelected="1" topLeftCell="E78" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E90" sqref="A90:XFD95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="66" customWidth="1"/>
     <col min="4" max="5" width="17.83203125" customWidth="1"/>
     <col min="6" max="7" width="19.33203125" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
@@ -1671,19 +1689,19 @@
       <c r="B2" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="50"/>
       <c r="O2" s="24"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1693,17 +1711,17 @@
       <c r="B3" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="52"/>
       <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1721,43 +1739,43 @@
       <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="58" t="s">
+      <c r="J5" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="57" t="s">
+      <c r="K5" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="57" t="s">
+      <c r="M5" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="57" t="s">
+      <c r="N5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="59" t="s">
+      <c r="O5" s="40" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1768,19 +1786,19 @@
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="60"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="41"/>
     </row>
     <row r="7" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1789,7 +1807,7 @@
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="69" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1825,7 +1843,7 @@
       <c r="N7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="61"/>
+      <c r="O7" s="42"/>
       <c r="P7" s="30" t="s">
         <v>40</v>
       </c>
@@ -1838,35 +1856,35 @@
     </row>
     <row r="8" spans="1:20" ht="20.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51" t="s">
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="54" t="s">
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="55"/>
+      <c r="N8" s="64"/>
       <c r="O8" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="62" t="s">
+      <c r="P8" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="64"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="45"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1935,7 +1953,7 @@
       <c r="B10" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="70" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="33" t="s">
@@ -1978,7 +1996,7 @@
       <c r="B11" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="70" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="33" t="s">
@@ -2021,7 +2039,7 @@
       <c r="B12" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="70" t="s">
         <v>77</v>
       </c>
       <c r="D12" s="33" t="s">
@@ -2064,7 +2082,7 @@
       <c r="B13" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="70" t="s">
         <v>77</v>
       </c>
       <c r="D13" s="33" t="s">
@@ -2107,7 +2125,7 @@
       <c r="B14" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="70" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="33" t="s">
@@ -2150,7 +2168,7 @@
       <c r="B15" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="70" t="s">
         <v>77</v>
       </c>
       <c r="D15" s="33" t="s">
@@ -2193,7 +2211,7 @@
       <c r="B16" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="70" t="s">
         <v>67</v>
       </c>
       <c r="D16" s="33" t="s">
@@ -2236,7 +2254,7 @@
       <c r="B17" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="70" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="33" t="s">
@@ -2279,7 +2297,7 @@
       <c r="B18" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="70" t="s">
         <v>77</v>
       </c>
       <c r="D18" s="33" t="s">
@@ -2322,7 +2340,7 @@
       <c r="B19" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="70" t="s">
         <v>77</v>
       </c>
       <c r="D19" s="33" t="s">
@@ -2365,7 +2383,7 @@
       <c r="B20" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="70" t="s">
         <v>77</v>
       </c>
       <c r="D20" s="33" t="s">
@@ -2408,7 +2426,7 @@
       <c r="B21" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="70" t="s">
         <v>77</v>
       </c>
       <c r="D21" s="33" t="s">
@@ -2451,7 +2469,7 @@
       <c r="B22" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="70" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="33" t="s">
@@ -2493,7 +2511,7 @@
       <c r="B23" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="70" t="s">
         <v>67</v>
       </c>
       <c r="D23" s="33" t="s">
@@ -2535,7 +2553,7 @@
       <c r="B24" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="70" t="s">
         <v>77</v>
       </c>
       <c r="D24" s="33" t="s">
@@ -2577,7 +2595,7 @@
       <c r="B25" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="70" t="s">
         <v>77</v>
       </c>
       <c r="D25" s="33" t="s">
@@ -2619,7 +2637,7 @@
       <c r="B26" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="70" t="s">
         <v>77</v>
       </c>
       <c r="D26" s="33" t="s">
@@ -2661,7 +2679,7 @@
       <c r="B27" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="70" t="s">
         <v>77</v>
       </c>
       <c r="D27" s="33" t="s">
@@ -2703,7 +2721,7 @@
       <c r="B28" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="70" t="s">
         <v>67</v>
       </c>
       <c r="D28" s="33" t="s">
@@ -2746,7 +2764,7 @@
       <c r="B29" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="70" t="s">
         <v>67</v>
       </c>
       <c r="D29" s="33" t="s">
@@ -2789,7 +2807,7 @@
       <c r="B30" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="70" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="33" t="s">
@@ -2832,7 +2850,7 @@
       <c r="B31" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="70" t="s">
         <v>67</v>
       </c>
       <c r="D31" s="33" t="s">
@@ -2875,7 +2893,7 @@
       <c r="B32" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="70" t="s">
         <v>67</v>
       </c>
       <c r="D32" s="33" t="s">
@@ -2917,7 +2935,7 @@
       <c r="B33" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="70" t="s">
         <v>67</v>
       </c>
       <c r="D33" s="33" t="s">
@@ -2959,7 +2977,7 @@
       <c r="B34" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D34" s="33" t="s">
@@ -3002,7 +3020,7 @@
       <c r="B35" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D35" s="33" t="s">
@@ -3045,7 +3063,7 @@
       <c r="B36" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D36" s="33" t="s">
@@ -3088,7 +3106,7 @@
       <c r="B37" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D37" s="33" t="s">
@@ -3131,7 +3149,7 @@
       <c r="B38" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D38" s="33" t="s">
@@ -3173,7 +3191,7 @@
       <c r="B39" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D39" s="33" t="s">
@@ -3215,7 +3233,7 @@
       <c r="B40" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="70" t="s">
         <v>103</v>
       </c>
       <c r="D40" s="33" t="s">
@@ -3255,7 +3273,7 @@
       <c r="B41" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="70" t="s">
         <v>103</v>
       </c>
       <c r="D41" s="33" t="s">
@@ -3295,7 +3313,7 @@
       <c r="B42" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="70" t="s">
         <v>103</v>
       </c>
       <c r="D42" s="33" t="s">
@@ -3334,7 +3352,7 @@
       <c r="B43" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="70" t="s">
         <v>104</v>
       </c>
       <c r="D43" s="33" t="s">
@@ -3374,7 +3392,7 @@
       <c r="B44" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="70" t="s">
         <v>104</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -3414,7 +3432,7 @@
       <c r="B45" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="70" t="s">
         <v>104</v>
       </c>
       <c r="D45" s="33" t="s">
@@ -3453,7 +3471,7 @@
       <c r="B46" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="70" t="s">
         <v>105</v>
       </c>
       <c r="D46" s="33" t="s">
@@ -3493,7 +3511,7 @@
       <c r="B47" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="70" t="s">
         <v>105</v>
       </c>
       <c r="D47" s="33" t="s">
@@ -3533,7 +3551,7 @@
       <c r="B48" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="70" t="s">
         <v>105</v>
       </c>
       <c r="D48" s="33" t="s">
@@ -3572,7 +3590,7 @@
       <c r="B49" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="70" t="s">
         <v>105</v>
       </c>
       <c r="D49" s="33" t="s">
@@ -3612,7 +3630,7 @@
       <c r="B50" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="70" t="s">
         <v>105</v>
       </c>
       <c r="D50" s="33" t="s">
@@ -3652,7 +3670,7 @@
       <c r="B51" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="70" t="s">
         <v>105</v>
       </c>
       <c r="D51" s="33" t="s">
@@ -3691,7 +3709,7 @@
       <c r="B52" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="70" t="s">
         <v>105</v>
       </c>
       <c r="D52" s="33" t="s">
@@ -3731,7 +3749,7 @@
       <c r="B53" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="70" t="s">
         <v>105</v>
       </c>
       <c r="D53" s="33" t="s">
@@ -3771,7 +3789,7 @@
       <c r="B54" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C54" s="70" t="s">
         <v>105</v>
       </c>
       <c r="D54" s="33" t="s">
@@ -3808,25 +3826,25 @@
         <v>5</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C55" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D55" s="33" t="s">
         <v>110</v>
       </c>
       <c r="E55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F55" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G55" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H55" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I55" s="34">
         <v>298</v>
@@ -3839,10 +3857,10 @@
         <v>44</v>
       </c>
       <c r="M55" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N55" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
@@ -3850,25 +3868,25 @@
         <v>5</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D56" s="33" t="s">
         <v>110</v>
       </c>
       <c r="E56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F56" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G56" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H56" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I56" s="34">
         <v>298</v>
@@ -3881,10 +3899,10 @@
         <v>44</v>
       </c>
       <c r="M56" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N56" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -3892,25 +3910,25 @@
         <v>5</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D57" s="33" t="s">
         <v>110</v>
       </c>
       <c r="E57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F57" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G57" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H57" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I57" s="34">
         <v>298</v>
@@ -3923,10 +3941,10 @@
         <v>44</v>
       </c>
       <c r="M57" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N57" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -3934,25 +3952,25 @@
         <v>5</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C58" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D58" s="33" t="s">
         <v>110</v>
       </c>
       <c r="E58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G58" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H58" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I58" s="34">
         <v>298</v>
@@ -3965,10 +3983,10 @@
         <v>44</v>
       </c>
       <c r="M58" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N58" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -3976,25 +3994,25 @@
         <v>5</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D59" s="33" t="s">
         <v>110</v>
       </c>
       <c r="E59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G59" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H59" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I59" s="34">
         <v>298</v>
@@ -4007,10 +4025,10 @@
         <v>44</v>
       </c>
       <c r="M59" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N59" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -4020,7 +4038,7 @@
       <c r="B60" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="33" t="s">
+      <c r="C60" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D60" s="33" t="s">
@@ -4030,13 +4048,13 @@
         <v>111</v>
       </c>
       <c r="F60" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G60" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H60" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I60" s="34">
         <v>298</v>
@@ -4049,10 +4067,10 @@
         <v>44</v>
       </c>
       <c r="M60" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N60" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -4062,7 +4080,7 @@
       <c r="B61" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="33" t="s">
+      <c r="C61" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D61" s="33" t="s">
@@ -4072,13 +4090,13 @@
         <v>111</v>
       </c>
       <c r="F61" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G61" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H61" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I61" s="34">
         <v>298</v>
@@ -4091,10 +4109,10 @@
         <v>44</v>
       </c>
       <c r="M61" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N61" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -4104,7 +4122,7 @@
       <c r="B62" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D62" s="33" t="s">
@@ -4114,13 +4132,13 @@
         <v>111</v>
       </c>
       <c r="F62" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G62" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H62" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I62" s="34">
         <v>298</v>
@@ -4133,10 +4151,10 @@
         <v>44</v>
       </c>
       <c r="M62" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N62" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -4146,7 +4164,7 @@
       <c r="B63" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="33" t="s">
+      <c r="C63" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D63" s="33" t="s">
@@ -4156,13 +4174,13 @@
         <v>111</v>
       </c>
       <c r="F63" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G63" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H63" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I63" s="34">
         <v>298</v>
@@ -4175,10 +4193,10 @@
         <v>44</v>
       </c>
       <c r="M63" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N63" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
@@ -4188,7 +4206,7 @@
       <c r="B64" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C64" s="33" t="s">
+      <c r="C64" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D64" s="33" t="s">
@@ -4198,13 +4216,13 @@
         <v>111</v>
       </c>
       <c r="F64" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G64" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H64" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I64" s="34">
         <v>298</v>
@@ -4217,10 +4235,10 @@
         <v>44</v>
       </c>
       <c r="M64" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N64" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -4230,7 +4248,7 @@
       <c r="B65" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C65" s="33" t="s">
+      <c r="C65" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D65" s="33" t="s">
@@ -4240,13 +4258,13 @@
         <v>112</v>
       </c>
       <c r="F65" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G65" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H65" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I65" s="34">
         <v>298</v>
@@ -4259,10 +4277,10 @@
         <v>44</v>
       </c>
       <c r="M65" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N65" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
@@ -4272,7 +4290,7 @@
       <c r="B66" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C66" s="33" t="s">
+      <c r="C66" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D66" s="33" t="s">
@@ -4282,13 +4300,13 @@
         <v>112</v>
       </c>
       <c r="F66" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G66" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H66" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I66" s="34">
         <v>298</v>
@@ -4301,10 +4319,10 @@
         <v>44</v>
       </c>
       <c r="M66" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N66" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -4314,7 +4332,7 @@
       <c r="B67" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C67" s="33" t="s">
+      <c r="C67" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D67" s="33" t="s">
@@ -4324,13 +4342,13 @@
         <v>112</v>
       </c>
       <c r="F67" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G67" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H67" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I67" s="34">
         <v>298</v>
@@ -4343,10 +4361,10 @@
         <v>44</v>
       </c>
       <c r="M67" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N67" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -4356,7 +4374,7 @@
       <c r="B68" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C68" s="33" t="s">
+      <c r="C68" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D68" s="33" t="s">
@@ -4366,13 +4384,13 @@
         <v>112</v>
       </c>
       <c r="F68" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G68" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H68" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I68" s="34">
         <v>298</v>
@@ -4385,10 +4403,10 @@
         <v>44</v>
       </c>
       <c r="M68" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N68" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -4398,7 +4416,7 @@
       <c r="B69" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D69" s="33" t="s">
@@ -4408,13 +4426,13 @@
         <v>112</v>
       </c>
       <c r="F69" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G69" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H69" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I69" s="34">
         <v>298</v>
@@ -4427,10 +4445,10 @@
         <v>44</v>
       </c>
       <c r="M69" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N69" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -4440,23 +4458,23 @@
       <c r="B70" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C70" s="33" t="s">
-        <v>115</v>
+      <c r="C70" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D70" s="33" t="s">
         <v>110</v>
       </c>
       <c r="E70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F70" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G70" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H70" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I70" s="34">
         <v>298</v>
@@ -4469,10 +4487,10 @@
         <v>44</v>
       </c>
       <c r="M70" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N70" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -4482,23 +4500,23 @@
       <c r="B71" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C71" s="33" t="s">
-        <v>115</v>
+      <c r="C71" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D71" s="33" t="s">
         <v>110</v>
       </c>
       <c r="E71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F71" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G71" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H71" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I71" s="34">
         <v>298</v>
@@ -4511,10 +4529,10 @@
         <v>44</v>
       </c>
       <c r="M71" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N71" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
@@ -4524,23 +4542,23 @@
       <c r="B72" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C72" s="33" t="s">
-        <v>115</v>
+      <c r="C72" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D72" s="33" t="s">
         <v>110</v>
       </c>
       <c r="E72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F72" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G72" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H72" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I72" s="34">
         <v>298</v>
@@ -4553,10 +4571,10 @@
         <v>44</v>
       </c>
       <c r="M72" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N72" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
@@ -4566,23 +4584,23 @@
       <c r="B73" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C73" s="33" t="s">
-        <v>115</v>
+      <c r="C73" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D73" s="33" t="s">
         <v>110</v>
       </c>
       <c r="E73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F73" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G73" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H73" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I73" s="34">
         <v>298</v>
@@ -4595,10 +4613,10 @@
         <v>44</v>
       </c>
       <c r="M73" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N73" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
@@ -4608,23 +4626,23 @@
       <c r="B74" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C74" s="33" t="s">
-        <v>115</v>
+      <c r="C74" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D74" s="33" t="s">
         <v>110</v>
       </c>
       <c r="E74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F74" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G74" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H74" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I74" s="34">
         <v>298</v>
@@ -4637,10 +4655,10 @@
         <v>44</v>
       </c>
       <c r="M74" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N74" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -4650,8 +4668,8 @@
       <c r="B75" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C75" s="33" t="s">
-        <v>115</v>
+      <c r="C75" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D75" s="33" t="s">
         <v>110</v>
@@ -4660,13 +4678,13 @@
         <v>113</v>
       </c>
       <c r="F75" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G75" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H75" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I75" s="34">
         <v>298</v>
@@ -4679,10 +4697,10 @@
         <v>44</v>
       </c>
       <c r="M75" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N75" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -4692,8 +4710,8 @@
       <c r="B76" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C76" s="33" t="s">
-        <v>115</v>
+      <c r="C76" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D76" s="33" t="s">
         <v>110</v>
@@ -4702,13 +4720,13 @@
         <v>113</v>
       </c>
       <c r="F76" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G76" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H76" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I76" s="34">
         <v>298</v>
@@ -4721,10 +4739,10 @@
         <v>44</v>
       </c>
       <c r="M76" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N76" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -4734,8 +4752,8 @@
       <c r="B77" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C77" s="33" t="s">
-        <v>115</v>
+      <c r="C77" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D77" s="33" t="s">
         <v>110</v>
@@ -4744,13 +4762,13 @@
         <v>113</v>
       </c>
       <c r="F77" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G77" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H77" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I77" s="34">
         <v>298</v>
@@ -4763,10 +4781,10 @@
         <v>44</v>
       </c>
       <c r="M77" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N77" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -4776,8 +4794,8 @@
       <c r="B78" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C78" s="33" t="s">
-        <v>115</v>
+      <c r="C78" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D78" s="33" t="s">
         <v>110</v>
@@ -4786,13 +4804,13 @@
         <v>113</v>
       </c>
       <c r="F78" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G78" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H78" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I78" s="34">
         <v>298</v>
@@ -4805,10 +4823,10 @@
         <v>44</v>
       </c>
       <c r="M78" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N78" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
@@ -4818,8 +4836,8 @@
       <c r="B79" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C79" s="33" t="s">
-        <v>115</v>
+      <c r="C79" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D79" s="33" t="s">
         <v>110</v>
@@ -4828,13 +4846,13 @@
         <v>113</v>
       </c>
       <c r="F79" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G79" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H79" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I79" s="34">
         <v>298</v>
@@ -4847,10 +4865,10 @@
         <v>44</v>
       </c>
       <c r="M79" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N79" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -4860,23 +4878,23 @@
       <c r="B80" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="33" t="s">
-        <v>115</v>
+      <c r="C80" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D80" s="33" t="s">
         <v>110</v>
       </c>
       <c r="E80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F80" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G80" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H80" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I80" s="34">
         <v>298</v>
@@ -4889,10 +4907,10 @@
         <v>44</v>
       </c>
       <c r="M80" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N80" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
@@ -4902,23 +4920,23 @@
       <c r="B81" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C81" s="33" t="s">
-        <v>115</v>
+      <c r="C81" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D81" s="33" t="s">
         <v>110</v>
       </c>
       <c r="E81" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F81" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G81" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H81" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I81" s="34">
         <v>298</v>
@@ -4931,10 +4949,10 @@
         <v>44</v>
       </c>
       <c r="M81" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N81" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
@@ -4944,23 +4962,23 @@
       <c r="B82" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C82" s="33" t="s">
-        <v>115</v>
+      <c r="C82" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D82" s="33" t="s">
         <v>110</v>
       </c>
       <c r="E82" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F82" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G82" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H82" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I82" s="34">
         <v>298</v>
@@ -4973,10 +4991,10 @@
         <v>44</v>
       </c>
       <c r="M82" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N82" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
@@ -4986,23 +5004,23 @@
       <c r="B83" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C83" s="33" t="s">
-        <v>115</v>
+      <c r="C83" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D83" s="33" t="s">
         <v>110</v>
       </c>
       <c r="E83" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F83" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G83" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H83" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I83" s="34">
         <v>298</v>
@@ -5015,10 +5033,10 @@
         <v>44</v>
       </c>
       <c r="M83" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N83" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
@@ -5028,23 +5046,23 @@
       <c r="B84" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C84" s="33" t="s">
-        <v>115</v>
+      <c r="C84" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D84" s="33" t="s">
         <v>110</v>
       </c>
       <c r="E84" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F84" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G84" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H84" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I84" s="34">
         <v>298</v>
@@ -5057,10 +5075,10 @@
         <v>44</v>
       </c>
       <c r="M84" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N84" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -5070,8 +5088,8 @@
       <c r="B85" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C85" s="33" t="s">
-        <v>115</v>
+      <c r="C85" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D85" s="33" t="s">
         <v>110</v>
@@ -5080,13 +5098,13 @@
         <v>114</v>
       </c>
       <c r="F85" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G85" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H85" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I85" s="34">
         <v>298</v>
@@ -5099,10 +5117,10 @@
         <v>44</v>
       </c>
       <c r="M85" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N85" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -5112,8 +5130,8 @@
       <c r="B86" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C86" s="33" t="s">
-        <v>115</v>
+      <c r="C86" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D86" s="33" t="s">
         <v>110</v>
@@ -5122,13 +5140,13 @@
         <v>114</v>
       </c>
       <c r="F86" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G86" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H86" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I86" s="34">
         <v>298</v>
@@ -5141,10 +5159,10 @@
         <v>44</v>
       </c>
       <c r="M86" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N86" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -5154,8 +5172,8 @@
       <c r="B87" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C87" s="33" t="s">
-        <v>115</v>
+      <c r="C87" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D87" s="33" t="s">
         <v>110</v>
@@ -5164,13 +5182,13 @@
         <v>114</v>
       </c>
       <c r="F87" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G87" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H87" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I87" s="34">
         <v>298</v>
@@ -5183,10 +5201,10 @@
         <v>44</v>
       </c>
       <c r="M87" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N87" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
@@ -5196,8 +5214,8 @@
       <c r="B88" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C88" s="33" t="s">
-        <v>115</v>
+      <c r="C88" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D88" s="33" t="s">
         <v>110</v>
@@ -5206,13 +5224,13 @@
         <v>114</v>
       </c>
       <c r="F88" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G88" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H88" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I88" s="34">
         <v>298</v>
@@ -5225,10 +5243,10 @@
         <v>44</v>
       </c>
       <c r="M88" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N88" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
@@ -5238,8 +5256,8 @@
       <c r="B89" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C89" s="33" t="s">
-        <v>115</v>
+      <c r="C89" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D89" s="33" t="s">
         <v>110</v>
@@ -5248,13 +5266,13 @@
         <v>114</v>
       </c>
       <c r="F89" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G89" s="33" t="s">
         <v>19</v>
       </c>
       <c r="H89" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I89" s="34">
         <v>298</v>
@@ -5267,262 +5285,268 @@
         <v>44</v>
       </c>
       <c r="M89" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N89" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="71">
+        <v>5</v>
+      </c>
+      <c r="B90" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="D90" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="E90" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="F90" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="G90" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="H90" s="70" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+      <c r="I90" s="73">
+        <v>298</v>
+      </c>
+      <c r="J90" s="74">
+        <f>10^3*11.7726495726495</f>
+        <v>11772.649572649501</v>
+      </c>
+      <c r="K90" s="74"/>
+      <c r="L90" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="M90" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="N90" s="72" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="71">
         <v>5</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="B91" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="C90" s="33" t="s">
+      <c r="C91" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="D90" s="33" t="s">
+      <c r="D91" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="E90" t="s">
-        <v>111</v>
-      </c>
-      <c r="F90" s="33" t="s">
+      <c r="E91" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="F91" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="G91" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="I91" s="73">
+        <v>298</v>
+      </c>
+      <c r="J91" s="74">
+        <f>10^3*11.8850471407172</f>
+        <v>11885.047140717199</v>
+      </c>
+      <c r="K91" s="74"/>
+      <c r="L91" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="M91" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="N91" s="72" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="71">
+        <v>5</v>
+      </c>
+      <c r="B92" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D92" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="E92" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="G90" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H90" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="I90" s="34">
-        <v>298</v>
-      </c>
-      <c r="J90" s="31">
-        <v>12630900000000</v>
-      </c>
-      <c r="K90" s="31"/>
-      <c r="L90" s="19" t="s">
+      <c r="F92" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="G92" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="I92" s="73">
+        <v>298</v>
+      </c>
+      <c r="J92" s="74">
+        <f>10^3*12.3072693629394</f>
+        <v>12307.2693629394</v>
+      </c>
+      <c r="K92" s="74"/>
+      <c r="L92" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="M92" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="N92" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="M90" s="19" t="s">
+    </row>
+    <row r="93" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="71">
+        <v>5</v>
+      </c>
+      <c r="B93" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D93" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="E93" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="F93" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="G93" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="I93" s="73">
+        <v>298</v>
+      </c>
+      <c r="J93" s="74">
+        <f>10^3*12.3457220900519</f>
+        <v>12345.722090051901</v>
+      </c>
+      <c r="K93" s="74"/>
+      <c r="L93" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="N90" s="19" t="s">
+      <c r="M93" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="N93" s="72" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="71">
+        <v>5</v>
+      </c>
+      <c r="B94" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D94" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="E94" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="F94" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="G94" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" s="70" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+      <c r="I94" s="73">
+        <v>298</v>
+      </c>
+      <c r="J94" s="74">
+        <f>10^3*12.4594061150762</f>
+        <v>12459.406115076201</v>
+      </c>
+      <c r="K94" s="74"/>
+      <c r="L94" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="M94" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="N94" s="72" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="71">
         <v>5</v>
       </c>
-      <c r="B91" s="19" t="s">
+      <c r="B95" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="C91" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D91" s="33" t="s">
+      <c r="C95" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D95" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="E91" t="s">
-        <v>112</v>
-      </c>
-      <c r="F91" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="G91" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H91" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="I91" s="34">
-        <v>298</v>
-      </c>
-      <c r="J91" s="31">
-        <v>13511900000000</v>
-      </c>
-      <c r="K91" s="31"/>
-      <c r="L91" s="19" t="s">
+      <c r="E95" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="F95" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="G95" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="I95" s="73">
+        <v>298</v>
+      </c>
+      <c r="J95" s="74">
+        <f>10^3*12.4692307692307</f>
+        <v>12469.2307692307</v>
+      </c>
+      <c r="K95" s="74"/>
+      <c r="L95" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="M95" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="N95" s="72" t="s">
         <v>122</v>
-      </c>
-      <c r="M91" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="N91" s="19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>5</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C92" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D92" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E92" t="s">
-        <v>119</v>
-      </c>
-      <c r="F92" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="G92" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H92" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="I92" s="34">
-        <v>298</v>
-      </c>
-      <c r="J92" s="31">
-        <v>15864000000000</v>
-      </c>
-      <c r="K92" s="31"/>
-      <c r="L92" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="M92" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="N92" s="19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>5</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C93" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D93" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E93" t="s">
-        <v>113</v>
-      </c>
-      <c r="F93" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="G93" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="I93" s="34">
-        <v>298</v>
-      </c>
-      <c r="J93" s="31">
-        <v>15982400000000</v>
-      </c>
-      <c r="K93" s="31"/>
-      <c r="L93" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="M93" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="N93" s="19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <v>5</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C94" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D94" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E94" t="s">
-        <v>120</v>
-      </c>
-      <c r="F94" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="G94" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H94" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="I94" s="34">
-        <v>298</v>
-      </c>
-      <c r="J94" s="31">
-        <v>16302600000000.002</v>
-      </c>
-      <c r="K94" s="31"/>
-      <c r="L94" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="M94" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="N94" s="19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <v>5</v>
-      </c>
-      <c r="B95" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C95" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D95" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E95" t="s">
-        <v>114</v>
-      </c>
-      <c r="F95" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="G95" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H95" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="I95" s="34">
-        <v>298</v>
-      </c>
-      <c r="J95" s="31">
-        <v>16337700000000.002</v>
-      </c>
-      <c r="K95" s="31"/>
-      <c r="L95" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="M95" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="N95" s="19" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
@@ -5530,16 +5554,16 @@
         <v>6</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C96" s="33" t="s">
-        <v>115</v>
+        <v>130</v>
+      </c>
+      <c r="C96" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D96" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E96" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F96" s="32" t="s">
         <v>94</v>
@@ -5548,7 +5572,7 @@
         <v>19</v>
       </c>
       <c r="H96" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I96" s="34">
         <v>298</v>
@@ -5562,10 +5586,10 @@
         <v>44</v>
       </c>
       <c r="M96" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N96" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
@@ -5573,16 +5597,16 @@
         <v>6</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C97" s="33" t="s">
-        <v>115</v>
+        <v>130</v>
+      </c>
+      <c r="C97" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D97" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E97" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F97" s="32" t="s">
         <v>97</v>
@@ -5591,7 +5615,7 @@
         <v>19</v>
       </c>
       <c r="H97" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I97" s="34">
         <v>298</v>
@@ -5604,10 +5628,10 @@
         <v>62</v>
       </c>
       <c r="M97" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N97" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
@@ -5615,19 +5639,19 @@
         <v>6</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C98" s="33" t="s">
-        <v>115</v>
+        <v>130</v>
+      </c>
+      <c r="C98" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D98" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E98" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F98" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G98" s="33" t="s">
         <v>19</v>
@@ -5648,10 +5672,10 @@
         <v>44</v>
       </c>
       <c r="M98" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N98" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
@@ -5659,16 +5683,16 @@
         <v>6</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C99" s="33" t="s">
-        <v>115</v>
+        <v>131</v>
+      </c>
+      <c r="C99" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D99" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E99" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F99" s="32" t="s">
         <v>94</v>
@@ -5677,7 +5701,7 @@
         <v>19</v>
       </c>
       <c r="H99" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I99" s="34">
         <v>298</v>
@@ -5691,10 +5715,10 @@
         <v>44</v>
       </c>
       <c r="M99" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N99" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
@@ -5702,16 +5726,16 @@
         <v>6</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C100" s="33" t="s">
-        <v>115</v>
+        <v>131</v>
+      </c>
+      <c r="C100" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D100" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E100" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F100" s="32" t="s">
         <v>97</v>
@@ -5720,7 +5744,7 @@
         <v>19</v>
       </c>
       <c r="H100" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I100" s="34">
         <v>298</v>
@@ -5733,10 +5757,10 @@
         <v>62</v>
       </c>
       <c r="M100" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N100" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
@@ -5744,19 +5768,19 @@
         <v>6</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C101" s="33" t="s">
-        <v>115</v>
+        <v>131</v>
+      </c>
+      <c r="C101" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D101" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E101" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F101" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G101" s="33" t="s">
         <v>19</v>
@@ -5777,10 +5801,10 @@
         <v>44</v>
       </c>
       <c r="M101" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N101" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
@@ -5788,16 +5812,16 @@
         <v>6</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C102" s="33" t="s">
-        <v>115</v>
+        <v>132</v>
+      </c>
+      <c r="C102" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D102" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E102" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F102" s="32" t="s">
         <v>94</v>
@@ -5806,7 +5830,7 @@
         <v>19</v>
       </c>
       <c r="H102" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I102" s="34">
         <v>298</v>
@@ -5820,10 +5844,10 @@
         <v>44</v>
       </c>
       <c r="M102" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N102" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
@@ -5831,16 +5855,16 @@
         <v>6</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C103" s="33" t="s">
-        <v>115</v>
+        <v>132</v>
+      </c>
+      <c r="C103" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D103" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E103" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F103" s="32" t="s">
         <v>97</v>
@@ -5849,7 +5873,7 @@
         <v>19</v>
       </c>
       <c r="H103" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I103" s="34">
         <v>298</v>
@@ -5862,10 +5886,10 @@
         <v>62</v>
       </c>
       <c r="M103" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N103" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
@@ -5873,19 +5897,19 @@
         <v>6</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C104" s="33" t="s">
-        <v>115</v>
+        <v>132</v>
+      </c>
+      <c r="C104" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="D104" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E104" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F104" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G104" s="33" t="s">
         <v>19</v>
@@ -5906,10 +5930,10 @@
         <v>44</v>
       </c>
       <c r="M104" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N104" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
@@ -5917,16 +5941,16 @@
         <v>6</v>
       </c>
       <c r="B105" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C105" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D105" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E105" t="s">
         <v>134</v>
-      </c>
-      <c r="C105" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D105" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E105" t="s">
-        <v>135</v>
       </c>
       <c r="F105" s="32" t="s">
         <v>94</v>
@@ -5935,7 +5959,7 @@
         <v>19</v>
       </c>
       <c r="H105" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I105" s="34">
         <v>298</v>
@@ -5949,10 +5973,10 @@
         <v>44</v>
       </c>
       <c r="M105" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N105" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
@@ -5960,16 +5984,16 @@
         <v>6</v>
       </c>
       <c r="B106" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C106" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D106" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E106" t="s">
         <v>134</v>
-      </c>
-      <c r="C106" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D106" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E106" t="s">
-        <v>135</v>
       </c>
       <c r="F106" s="32" t="s">
         <v>97</v>
@@ -5978,7 +6002,7 @@
         <v>19</v>
       </c>
       <c r="H106" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I106" s="34">
         <v>298</v>
@@ -5991,10 +6015,10 @@
         <v>62</v>
       </c>
       <c r="M106" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N106" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
@@ -6002,19 +6026,19 @@
         <v>6</v>
       </c>
       <c r="B107" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C107" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D107" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E107" t="s">
         <v>134</v>
       </c>
-      <c r="C107" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D107" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E107" t="s">
-        <v>135</v>
-      </c>
       <c r="F107" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G107" s="33" t="s">
         <v>19</v>
@@ -6035,10 +6059,10 @@
         <v>44</v>
       </c>
       <c r="M107" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N107" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
@@ -6046,16 +6070,16 @@
         <v>7</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C108" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C108" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D108" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F108" s="32" t="s">
         <v>94</v>
@@ -6084,7 +6108,7 @@
         <v>69</v>
       </c>
       <c r="N108" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
@@ -6092,16 +6116,16 @@
         <v>7</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C109" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C109" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D109" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E109" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F109" s="32" t="s">
         <v>94</v>
@@ -6130,7 +6154,7 @@
         <v>69</v>
       </c>
       <c r="N109" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
@@ -6138,16 +6162,16 @@
         <v>7</v>
       </c>
       <c r="B110" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C110" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="D110" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E110" t="s">
         <v>141</v>
-      </c>
-      <c r="C110" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D110" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E110" t="s">
-        <v>142</v>
       </c>
       <c r="F110" s="32" t="s">
         <v>94</v>
@@ -6176,7 +6200,7 @@
         <v>69</v>
       </c>
       <c r="N110" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
@@ -6184,16 +6208,16 @@
         <v>7</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C111" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C111" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D111" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E111" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F111" s="32" t="s">
         <v>97</v>
@@ -6218,7 +6242,7 @@
         <v>69</v>
       </c>
       <c r="N111" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
@@ -6226,16 +6250,16 @@
         <v>7</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C112" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C112" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D112" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E112" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F112" s="32" t="s">
         <v>97</v>
@@ -6260,7 +6284,7 @@
         <v>69</v>
       </c>
       <c r="N112" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
@@ -6268,16 +6292,16 @@
         <v>7</v>
       </c>
       <c r="B113" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C113" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="D113" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E113" t="s">
         <v>141</v>
-      </c>
-      <c r="C113" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D113" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E113" t="s">
-        <v>142</v>
       </c>
       <c r="F113" s="32" t="s">
         <v>97</v>
@@ -6304,7 +6328,7 @@
         <v>69</v>
       </c>
       <c r="N113" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
@@ -6312,10 +6336,10 @@
         <v>8</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C114" s="33" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="C114" s="70" t="s">
+        <v>151</v>
       </c>
       <c r="D114" s="33" t="s">
         <v>61</v>
@@ -6327,7 +6351,7 @@
         <v>19</v>
       </c>
       <c r="H114" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I114" s="34">
         <f>22+273</f>
@@ -6345,10 +6369,10 @@
         <v>44</v>
       </c>
       <c r="M114" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N114" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
@@ -6356,10 +6380,10 @@
         <v>8</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C115" s="33" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="C115" s="70" t="s">
+        <v>151</v>
       </c>
       <c r="D115" s="33" t="s">
         <v>61</v>
@@ -6371,7 +6395,7 @@
         <v>19</v>
       </c>
       <c r="H115" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I115" s="34">
         <f>22+273</f>
@@ -6389,10 +6413,10 @@
         <v>44</v>
       </c>
       <c r="M115" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N115" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
@@ -6400,10 +6424,10 @@
         <v>8</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C116" s="33" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="C116" s="70" t="s">
+        <v>151</v>
       </c>
       <c r="D116" s="33" t="s">
         <v>61</v>
@@ -6415,7 +6439,7 @@
         <v>19</v>
       </c>
       <c r="H116" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I116" s="34">
         <f>22+273</f>
@@ -6431,10 +6455,10 @@
         <v>62</v>
       </c>
       <c r="M116" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N116" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
@@ -6442,10 +6466,10 @@
         <v>8</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C117" s="33" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="C117" s="70" t="s">
+        <v>151</v>
       </c>
       <c r="D117" s="33" t="s">
         <v>61</v>
@@ -6457,7 +6481,7 @@
         <v>19</v>
       </c>
       <c r="H117" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I117" s="34">
         <f>600+273</f>
@@ -6475,10 +6499,10 @@
         <v>44</v>
       </c>
       <c r="M117" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N117" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
@@ -6486,10 +6510,10 @@
         <v>8</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C118" s="33" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="C118" s="70" t="s">
+        <v>151</v>
       </c>
       <c r="D118" s="33" t="s">
         <v>61</v>
@@ -6501,7 +6525,7 @@
         <v>19</v>
       </c>
       <c r="H118" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I118" s="34">
         <f>600+273</f>
@@ -6515,10 +6539,10 @@
         <v>62</v>
       </c>
       <c r="M118" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N118" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
@@ -6526,10 +6550,10 @@
         <v>8</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C119" s="33" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="C119" s="70" t="s">
+        <v>151</v>
       </c>
       <c r="D119" s="33" t="s">
         <v>61</v>
@@ -6541,7 +6565,7 @@
         <v>19</v>
       </c>
       <c r="H119" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I119" s="34">
         <f>800+273</f>
@@ -6559,10 +6583,10 @@
         <v>44</v>
       </c>
       <c r="M119" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N119" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
@@ -6570,10 +6594,10 @@
         <v>8</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C120" s="33" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="C120" s="70" t="s">
+        <v>151</v>
       </c>
       <c r="D120" s="33" t="s">
         <v>61</v>
@@ -6585,7 +6609,7 @@
         <v>19</v>
       </c>
       <c r="H120" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I120" s="34">
         <f>800+273</f>
@@ -6599,10 +6623,10 @@
         <v>62</v>
       </c>
       <c r="M120" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N120" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
@@ -6610,10 +6634,10 @@
         <v>8</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C121" s="33" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="C121" s="70" t="s">
+        <v>151</v>
       </c>
       <c r="D121" s="33" t="s">
         <v>61</v>
@@ -6625,7 +6649,7 @@
         <v>19</v>
       </c>
       <c r="H121" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I121" s="34">
         <f>1000+273</f>
@@ -6643,10 +6667,10 @@
         <v>44</v>
       </c>
       <c r="M121" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N121" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
@@ -6654,10 +6678,10 @@
         <v>8</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C122" s="33" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="C122" s="70" t="s">
+        <v>151</v>
       </c>
       <c r="D122" s="33" t="s">
         <v>61</v>
@@ -6669,7 +6693,7 @@
         <v>19</v>
       </c>
       <c r="H122" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I122" s="34">
         <f>1000+273</f>
@@ -6683,10 +6707,10 @@
         <v>62</v>
       </c>
       <c r="M122" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N122" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
@@ -6694,10 +6718,10 @@
         <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>151</v>
-      </c>
-      <c r="C123" s="33" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="C123" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D123" s="33" t="s">
         <v>61</v>
@@ -6709,7 +6733,7 @@
         <v>19</v>
       </c>
       <c r="H123" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I123" s="34">
         <f t="shared" ref="I123:I125" si="0">22+273</f>
@@ -6727,10 +6751,10 @@
         <v>44</v>
       </c>
       <c r="M123" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N123" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
@@ -6738,10 +6762,10 @@
         <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>151</v>
-      </c>
-      <c r="C124" s="33" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="C124" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D124" s="33" t="s">
         <v>61</v>
@@ -6753,7 +6777,7 @@
         <v>19</v>
       </c>
       <c r="H124" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I124" s="34">
         <f t="shared" si="0"/>
@@ -6771,10 +6795,10 @@
         <v>44</v>
       </c>
       <c r="M124" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N124" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
@@ -6782,10 +6806,10 @@
         <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>151</v>
-      </c>
-      <c r="C125" s="33" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="C125" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D125" s="33" t="s">
         <v>61</v>
@@ -6797,7 +6821,7 @@
         <v>19</v>
       </c>
       <c r="H125" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I125" s="34">
         <f t="shared" si="0"/>
@@ -6813,10 +6837,10 @@
         <v>62</v>
       </c>
       <c r="M125" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N125" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
@@ -6824,10 +6848,10 @@
         <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>151</v>
-      </c>
-      <c r="C126" s="33" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="C126" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D126" s="33" t="s">
         <v>61</v>
@@ -6839,7 +6863,7 @@
         <v>19</v>
       </c>
       <c r="H126" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I126" s="34">
         <f t="shared" ref="I126:I127" si="1">600+273</f>
@@ -6857,10 +6881,10 @@
         <v>44</v>
       </c>
       <c r="M126" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N126" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
@@ -6868,10 +6892,10 @@
         <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>151</v>
-      </c>
-      <c r="C127" s="33" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="C127" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D127" s="33" t="s">
         <v>61</v>
@@ -6883,7 +6907,7 @@
         <v>19</v>
       </c>
       <c r="H127" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I127" s="34">
         <f t="shared" si="1"/>
@@ -6897,10 +6921,10 @@
         <v>62</v>
       </c>
       <c r="M127" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N127" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
@@ -6908,10 +6932,10 @@
         <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>151</v>
-      </c>
-      <c r="C128" s="33" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="C128" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D128" s="33" t="s">
         <v>61</v>
@@ -6923,7 +6947,7 @@
         <v>19</v>
       </c>
       <c r="H128" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I128" s="34">
         <f t="shared" ref="I128:I129" si="2">800+273</f>
@@ -6941,10 +6965,10 @@
         <v>44</v>
       </c>
       <c r="M128" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N128" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
@@ -6952,10 +6976,10 @@
         <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>151</v>
-      </c>
-      <c r="C129" s="33" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="C129" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D129" s="33" t="s">
         <v>61</v>
@@ -6967,7 +6991,7 @@
         <v>19</v>
       </c>
       <c r="H129" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I129" s="34">
         <f t="shared" si="2"/>
@@ -6981,10 +7005,10 @@
         <v>62</v>
       </c>
       <c r="M129" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N129" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
@@ -6992,10 +7016,10 @@
         <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>151</v>
-      </c>
-      <c r="C130" s="33" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="C130" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D130" s="33" t="s">
         <v>61</v>
@@ -7007,7 +7031,7 @@
         <v>19</v>
       </c>
       <c r="H130" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I130" s="34">
         <f t="shared" ref="I130:I131" si="3">1000+273</f>
@@ -7025,10 +7049,10 @@
         <v>44</v>
       </c>
       <c r="M130" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N130" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
@@ -7036,10 +7060,10 @@
         <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>151</v>
-      </c>
-      <c r="C131" s="33" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="C131" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D131" s="33" t="s">
         <v>61</v>
@@ -7051,7 +7075,7 @@
         <v>19</v>
       </c>
       <c r="H131" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I131" s="34">
         <f t="shared" si="3"/>
@@ -7065,10 +7089,10 @@
         <v>62</v>
       </c>
       <c r="M131" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N131" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -7076,10 +7100,10 @@
         <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>150</v>
-      </c>
-      <c r="C132" s="33" t="s">
-        <v>153</v>
+        <v>149</v>
+      </c>
+      <c r="C132" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D132" s="33" t="s">
         <v>61</v>
@@ -7091,7 +7115,7 @@
         <v>19</v>
       </c>
       <c r="H132" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I132" s="34">
         <f t="shared" ref="I132:I134" si="4">22+273</f>
@@ -7109,10 +7133,10 @@
         <v>44</v>
       </c>
       <c r="M132" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N132" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -7120,10 +7144,10 @@
         <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>150</v>
-      </c>
-      <c r="C133" s="33" t="s">
-        <v>153</v>
+        <v>149</v>
+      </c>
+      <c r="C133" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D133" s="33" t="s">
         <v>61</v>
@@ -7135,7 +7159,7 @@
         <v>19</v>
       </c>
       <c r="H133" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I133" s="34">
         <f t="shared" si="4"/>
@@ -7153,10 +7177,10 @@
         <v>44</v>
       </c>
       <c r="M133" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N133" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -7164,10 +7188,10 @@
         <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>150</v>
-      </c>
-      <c r="C134" s="33" t="s">
-        <v>153</v>
+        <v>149</v>
+      </c>
+      <c r="C134" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D134" s="33" t="s">
         <v>61</v>
@@ -7179,7 +7203,7 @@
         <v>19</v>
       </c>
       <c r="H134" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I134" s="34">
         <f t="shared" si="4"/>
@@ -7195,10 +7219,10 @@
         <v>62</v>
       </c>
       <c r="M134" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N134" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -7206,10 +7230,10 @@
         <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>150</v>
-      </c>
-      <c r="C135" s="33" t="s">
-        <v>153</v>
+        <v>149</v>
+      </c>
+      <c r="C135" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D135" s="33" t="s">
         <v>61</v>
@@ -7221,7 +7245,7 @@
         <v>19</v>
       </c>
       <c r="H135" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I135" s="34">
         <f t="shared" ref="I135:I137" si="5">600+273</f>
@@ -7239,10 +7263,10 @@
         <v>44</v>
       </c>
       <c r="M135" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N135" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -7250,10 +7274,10 @@
         <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>150</v>
-      </c>
-      <c r="C136" s="33" t="s">
-        <v>153</v>
+        <v>149</v>
+      </c>
+      <c r="C136" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D136" s="33" t="s">
         <v>61</v>
@@ -7265,7 +7289,7 @@
         <v>19</v>
       </c>
       <c r="H136" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I136" s="34">
         <f t="shared" si="5"/>
@@ -7283,10 +7307,10 @@
         <v>44</v>
       </c>
       <c r="M136" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N136" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -7294,10 +7318,10 @@
         <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>150</v>
-      </c>
-      <c r="C137" s="33" t="s">
-        <v>153</v>
+        <v>149</v>
+      </c>
+      <c r="C137" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D137" s="33" t="s">
         <v>61</v>
@@ -7309,7 +7333,7 @@
         <v>19</v>
       </c>
       <c r="H137" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I137" s="34">
         <f t="shared" si="5"/>
@@ -7325,10 +7349,10 @@
         <v>62</v>
       </c>
       <c r="M137" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N137" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -7336,10 +7360,10 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>150</v>
-      </c>
-      <c r="C138" s="33" t="s">
-        <v>153</v>
+        <v>149</v>
+      </c>
+      <c r="C138" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D138" s="33" t="s">
         <v>61</v>
@@ -7351,7 +7375,7 @@
         <v>19</v>
       </c>
       <c r="H138" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I138" s="34">
         <f t="shared" ref="I138:I139" si="6">800+273</f>
@@ -7369,10 +7393,10 @@
         <v>44</v>
       </c>
       <c r="M138" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N138" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -7380,10 +7404,10 @@
         <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>150</v>
-      </c>
-      <c r="C139" s="33" t="s">
-        <v>153</v>
+        <v>149</v>
+      </c>
+      <c r="C139" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D139" s="33" t="s">
         <v>61</v>
@@ -7395,7 +7419,7 @@
         <v>19</v>
       </c>
       <c r="H139" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I139" s="34">
         <f t="shared" si="6"/>
@@ -7409,10 +7433,10 @@
         <v>62</v>
       </c>
       <c r="M139" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N139" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -7420,10 +7444,10 @@
         <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>150</v>
-      </c>
-      <c r="C140" s="33" t="s">
-        <v>153</v>
+        <v>149</v>
+      </c>
+      <c r="C140" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D140" s="33" t="s">
         <v>61</v>
@@ -7435,7 +7459,7 @@
         <v>19</v>
       </c>
       <c r="H140" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I140" s="34">
         <f t="shared" ref="I140:I141" si="7">1000+273</f>
@@ -7453,10 +7477,10 @@
         <v>44</v>
       </c>
       <c r="M140" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N140" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -7464,10 +7488,10 @@
         <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>150</v>
-      </c>
-      <c r="C141" s="33" t="s">
-        <v>153</v>
+        <v>149</v>
+      </c>
+      <c r="C141" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D141" s="33" t="s">
         <v>61</v>
@@ -7479,7 +7503,7 @@
         <v>19</v>
       </c>
       <c r="H141" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I141" s="34">
         <f t="shared" si="7"/>
@@ -7493,10 +7517,10 @@
         <v>62</v>
       </c>
       <c r="M141" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N141" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -7504,10 +7528,10 @@
         <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>149</v>
-      </c>
-      <c r="C142" s="33" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="C142" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D142" s="33" t="s">
         <v>61</v>
@@ -7519,10 +7543,10 @@
         <v>19</v>
       </c>
       <c r="H142" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I142" s="34">
-        <f t="shared" ref="I142:I173" si="8">22+273</f>
+        <f t="shared" ref="I142:I144" si="8">22+273</f>
         <v>295</v>
       </c>
       <c r="J142" s="31">
@@ -7537,10 +7561,10 @@
         <v>44</v>
       </c>
       <c r="M142" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N142" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -7548,10 +7572,10 @@
         <v>8</v>
       </c>
       <c r="B143" t="s">
-        <v>149</v>
-      </c>
-      <c r="C143" s="33" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="C143" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D143" s="33" t="s">
         <v>61</v>
@@ -7563,7 +7587,7 @@
         <v>19</v>
       </c>
       <c r="H143" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I143" s="34">
         <f t="shared" si="8"/>
@@ -7581,10 +7605,10 @@
         <v>44</v>
       </c>
       <c r="M143" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N143" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -7592,10 +7616,10 @@
         <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>149</v>
-      </c>
-      <c r="C144" s="33" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="C144" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D144" s="33" t="s">
         <v>61</v>
@@ -7607,7 +7631,7 @@
         <v>19</v>
       </c>
       <c r="H144" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I144" s="34">
         <f t="shared" si="8"/>
@@ -7623,10 +7647,10 @@
         <v>62</v>
       </c>
       <c r="M144" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N144" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
@@ -7634,10 +7658,10 @@
         <v>8</v>
       </c>
       <c r="B145" t="s">
-        <v>149</v>
-      </c>
-      <c r="C145" s="33" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="C145" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D145" s="33" t="s">
         <v>61</v>
@@ -7649,10 +7673,10 @@
         <v>19</v>
       </c>
       <c r="H145" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I145" s="34">
-        <f t="shared" ref="I145:I176" si="9">600+273</f>
+        <f t="shared" ref="I145:I147" si="9">600+273</f>
         <v>873</v>
       </c>
       <c r="J145" s="31">
@@ -7667,10 +7691,10 @@
         <v>44</v>
       </c>
       <c r="M145" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N145" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
@@ -7678,10 +7702,10 @@
         <v>8</v>
       </c>
       <c r="B146" t="s">
-        <v>149</v>
-      </c>
-      <c r="C146" s="33" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="C146" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D146" s="33" t="s">
         <v>61</v>
@@ -7693,7 +7717,7 @@
         <v>19</v>
       </c>
       <c r="H146" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I146" s="34">
         <f t="shared" si="9"/>
@@ -7711,10 +7735,10 @@
         <v>44</v>
       </c>
       <c r="M146" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N146" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
@@ -7722,10 +7746,10 @@
         <v>8</v>
       </c>
       <c r="B147" t="s">
-        <v>149</v>
-      </c>
-      <c r="C147" s="33" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="C147" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D147" s="33" t="s">
         <v>61</v>
@@ -7737,7 +7761,7 @@
         <v>19</v>
       </c>
       <c r="H147" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I147" s="34">
         <f t="shared" si="9"/>
@@ -7753,10 +7777,10 @@
         <v>62</v>
       </c>
       <c r="M147" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N147" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
@@ -7764,10 +7788,10 @@
         <v>8</v>
       </c>
       <c r="B148" t="s">
-        <v>149</v>
-      </c>
-      <c r="C148" s="33" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="C148" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D148" s="33" t="s">
         <v>61</v>
@@ -7779,10 +7803,10 @@
         <v>19</v>
       </c>
       <c r="H148" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I148" s="34">
-        <f t="shared" ref="I148:I179" si="10">800+273</f>
+        <f t="shared" ref="I148:I150" si="10">800+273</f>
         <v>1073</v>
       </c>
       <c r="J148" s="31">
@@ -7797,10 +7821,10 @@
         <v>44</v>
       </c>
       <c r="M148" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N148" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
@@ -7808,10 +7832,10 @@
         <v>8</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
-      </c>
-      <c r="C149" s="33" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="C149" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D149" s="33" t="s">
         <v>61</v>
@@ -7823,7 +7847,7 @@
         <v>19</v>
       </c>
       <c r="H149" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I149" s="34">
         <f t="shared" si="10"/>
@@ -7841,10 +7865,10 @@
         <v>44</v>
       </c>
       <c r="M149" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N149" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
@@ -7852,10 +7876,10 @@
         <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>149</v>
-      </c>
-      <c r="C150" s="33" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="C150" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D150" s="33" t="s">
         <v>61</v>
@@ -7867,7 +7891,7 @@
         <v>19</v>
       </c>
       <c r="H150" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I150" s="34">
         <f t="shared" si="10"/>
@@ -7883,10 +7907,10 @@
         <v>62</v>
       </c>
       <c r="M150" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N150" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
@@ -7894,10 +7918,10 @@
         <v>8</v>
       </c>
       <c r="B151" t="s">
-        <v>149</v>
-      </c>
-      <c r="C151" s="33" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="C151" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D151" s="33" t="s">
         <v>61</v>
@@ -7909,10 +7933,10 @@
         <v>19</v>
       </c>
       <c r="H151" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I151" s="34">
-        <f t="shared" ref="I151:I182" si="11">1000+273</f>
+        <f t="shared" ref="I151:I153" si="11">1000+273</f>
         <v>1273</v>
       </c>
       <c r="J151" s="31">
@@ -7927,10 +7951,10 @@
         <v>44</v>
       </c>
       <c r="M151" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N151" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
@@ -7938,10 +7962,10 @@
         <v>8</v>
       </c>
       <c r="B152" t="s">
-        <v>149</v>
-      </c>
-      <c r="C152" s="33" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="C152" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D152" s="33" t="s">
         <v>61</v>
@@ -7953,7 +7977,7 @@
         <v>19</v>
       </c>
       <c r="H152" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I152" s="34">
         <f t="shared" si="11"/>
@@ -7971,10 +7995,10 @@
         <v>44</v>
       </c>
       <c r="M152" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N152" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
@@ -7982,10 +8006,10 @@
         <v>8</v>
       </c>
       <c r="B153" t="s">
-        <v>149</v>
-      </c>
-      <c r="C153" s="33" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="C153" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D153" s="33" t="s">
         <v>61</v>
@@ -7997,7 +8021,7 @@
         <v>19</v>
       </c>
       <c r="H153" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I153" s="34">
         <f t="shared" si="11"/>
@@ -8011,10 +8035,10 @@
         <v>62</v>
       </c>
       <c r="M153" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N153" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
@@ -8022,10 +8046,10 @@
         <v>8</v>
       </c>
       <c r="B154" t="s">
-        <v>148</v>
-      </c>
-      <c r="C154" s="33" t="s">
-        <v>153</v>
+        <v>147</v>
+      </c>
+      <c r="C154" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D154" s="33" t="s">
         <v>61</v>
@@ -8037,10 +8061,10 @@
         <v>19</v>
       </c>
       <c r="H154" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I154" s="34">
-        <f t="shared" ref="I154:I185" si="12">22+273</f>
+        <f t="shared" ref="I154:I156" si="12">22+273</f>
         <v>295</v>
       </c>
       <c r="J154" s="31">
@@ -8055,10 +8079,10 @@
         <v>44</v>
       </c>
       <c r="M154" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N154" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
@@ -8066,10 +8090,10 @@
         <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>148</v>
-      </c>
-      <c r="C155" s="33" t="s">
-        <v>153</v>
+        <v>147</v>
+      </c>
+      <c r="C155" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D155" s="33" t="s">
         <v>61</v>
@@ -8081,7 +8105,7 @@
         <v>19</v>
       </c>
       <c r="H155" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I155" s="34">
         <f t="shared" si="12"/>
@@ -8099,10 +8123,10 @@
         <v>44</v>
       </c>
       <c r="M155" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N155" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
@@ -8110,10 +8134,10 @@
         <v>8</v>
       </c>
       <c r="B156" t="s">
-        <v>148</v>
-      </c>
-      <c r="C156" s="33" t="s">
-        <v>153</v>
+        <v>147</v>
+      </c>
+      <c r="C156" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D156" s="33" t="s">
         <v>61</v>
@@ -8125,7 +8149,7 @@
         <v>19</v>
       </c>
       <c r="H156" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I156" s="34">
         <f t="shared" si="12"/>
@@ -8141,10 +8165,10 @@
         <v>62</v>
       </c>
       <c r="M156" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N156" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
@@ -8152,10 +8176,10 @@
         <v>8</v>
       </c>
       <c r="B157" t="s">
-        <v>148</v>
-      </c>
-      <c r="C157" s="33" t="s">
-        <v>153</v>
+        <v>147</v>
+      </c>
+      <c r="C157" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D157" s="33" t="s">
         <v>61</v>
@@ -8167,10 +8191,10 @@
         <v>19</v>
       </c>
       <c r="H157" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I157" s="34">
-        <f t="shared" ref="I157:I188" si="13">600+273</f>
+        <f t="shared" ref="I157:I159" si="13">600+273</f>
         <v>873</v>
       </c>
       <c r="J157" s="31">
@@ -8185,10 +8209,10 @@
         <v>44</v>
       </c>
       <c r="M157" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N157" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
@@ -8196,10 +8220,10 @@
         <v>8</v>
       </c>
       <c r="B158" t="s">
-        <v>148</v>
-      </c>
-      <c r="C158" s="33" t="s">
-        <v>153</v>
+        <v>147</v>
+      </c>
+      <c r="C158" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D158" s="33" t="s">
         <v>61</v>
@@ -8211,7 +8235,7 @@
         <v>19</v>
       </c>
       <c r="H158" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I158" s="34">
         <f t="shared" si="13"/>
@@ -8229,10 +8253,10 @@
         <v>44</v>
       </c>
       <c r="M158" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N158" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
@@ -8240,10 +8264,10 @@
         <v>8</v>
       </c>
       <c r="B159" t="s">
-        <v>148</v>
-      </c>
-      <c r="C159" s="33" t="s">
-        <v>153</v>
+        <v>147</v>
+      </c>
+      <c r="C159" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D159" s="33" t="s">
         <v>61</v>
@@ -8255,7 +8279,7 @@
         <v>19</v>
       </c>
       <c r="H159" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I159" s="34">
         <f t="shared" si="13"/>
@@ -8271,10 +8295,10 @@
         <v>62</v>
       </c>
       <c r="M159" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N159" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
@@ -8282,10 +8306,10 @@
         <v>8</v>
       </c>
       <c r="B160" t="s">
-        <v>148</v>
-      </c>
-      <c r="C160" s="33" t="s">
-        <v>153</v>
+        <v>147</v>
+      </c>
+      <c r="C160" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D160" s="33" t="s">
         <v>61</v>
@@ -8297,10 +8321,10 @@
         <v>19</v>
       </c>
       <c r="H160" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I160" s="34">
-        <f t="shared" ref="I160:I207" si="14">800+273</f>
+        <f t="shared" ref="I160:I162" si="14">800+273</f>
         <v>1073</v>
       </c>
       <c r="J160" s="31">
@@ -8315,10 +8339,10 @@
         <v>44</v>
       </c>
       <c r="M160" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N160" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
@@ -8326,10 +8350,10 @@
         <v>8</v>
       </c>
       <c r="B161" t="s">
-        <v>148</v>
-      </c>
-      <c r="C161" s="33" t="s">
-        <v>153</v>
+        <v>147</v>
+      </c>
+      <c r="C161" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D161" s="33" t="s">
         <v>61</v>
@@ -8341,7 +8365,7 @@
         <v>19</v>
       </c>
       <c r="H161" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I161" s="34">
         <f t="shared" si="14"/>
@@ -8359,10 +8383,10 @@
         <v>44</v>
       </c>
       <c r="M161" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N161" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
@@ -8370,10 +8394,10 @@
         <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>148</v>
-      </c>
-      <c r="C162" s="33" t="s">
-        <v>153</v>
+        <v>147</v>
+      </c>
+      <c r="C162" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D162" s="33" t="s">
         <v>61</v>
@@ -8385,7 +8409,7 @@
         <v>19</v>
       </c>
       <c r="H162" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I162" s="34">
         <f t="shared" si="14"/>
@@ -8401,10 +8425,10 @@
         <v>62</v>
       </c>
       <c r="M162" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N162" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
@@ -8412,10 +8436,10 @@
         <v>8</v>
       </c>
       <c r="B163" t="s">
-        <v>148</v>
-      </c>
-      <c r="C163" s="33" t="s">
-        <v>153</v>
+        <v>147</v>
+      </c>
+      <c r="C163" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D163" s="33" t="s">
         <v>61</v>
@@ -8427,10 +8451,10 @@
         <v>19</v>
       </c>
       <c r="H163" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I163" s="34">
-        <f t="shared" ref="I163:I207" si="15">1000+273</f>
+        <f t="shared" ref="I163:I165" si="15">1000+273</f>
         <v>1273</v>
       </c>
       <c r="J163" s="31">
@@ -8445,10 +8469,10 @@
         <v>44</v>
       </c>
       <c r="M163" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N163" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
@@ -8456,10 +8480,10 @@
         <v>8</v>
       </c>
       <c r="B164" t="s">
-        <v>148</v>
-      </c>
-      <c r="C164" s="33" t="s">
-        <v>153</v>
+        <v>147</v>
+      </c>
+      <c r="C164" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D164" s="33" t="s">
         <v>61</v>
@@ -8471,7 +8495,7 @@
         <v>19</v>
       </c>
       <c r="H164" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I164" s="34">
         <f t="shared" si="15"/>
@@ -8489,10 +8513,10 @@
         <v>44</v>
       </c>
       <c r="M164" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N164" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
@@ -8500,10 +8524,10 @@
         <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>148</v>
-      </c>
-      <c r="C165" s="33" t="s">
-        <v>153</v>
+        <v>147</v>
+      </c>
+      <c r="C165" s="70" t="s">
+        <v>152</v>
       </c>
       <c r="D165" s="33" t="s">
         <v>61</v>
@@ -8515,7 +8539,7 @@
         <v>19</v>
       </c>
       <c r="H165" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I165" s="34">
         <f t="shared" si="15"/>
@@ -8529,10 +8553,10 @@
         <v>62</v>
       </c>
       <c r="M165" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N165" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
@@ -8540,9 +8564,9 @@
         <v>8</v>
       </c>
       <c r="B166" t="s">
-        <v>147</v>
-      </c>
-      <c r="C166" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C166" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D166" s="33" t="s">
@@ -8555,10 +8579,10 @@
         <v>19</v>
       </c>
       <c r="H166" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I166" s="34">
-        <f t="shared" ref="I166:I207" si="16">22+273</f>
+        <f t="shared" ref="I166:I168" si="16">22+273</f>
         <v>295</v>
       </c>
       <c r="J166" s="31">
@@ -8573,10 +8597,10 @@
         <v>44</v>
       </c>
       <c r="M166" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N166" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
@@ -8584,9 +8608,9 @@
         <v>8</v>
       </c>
       <c r="B167" t="s">
-        <v>147</v>
-      </c>
-      <c r="C167" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C167" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D167" s="33" t="s">
@@ -8599,7 +8623,7 @@
         <v>19</v>
       </c>
       <c r="H167" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I167" s="34">
         <f t="shared" si="16"/>
@@ -8617,10 +8641,10 @@
         <v>44</v>
       </c>
       <c r="M167" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N167" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
@@ -8628,9 +8652,9 @@
         <v>8</v>
       </c>
       <c r="B168" t="s">
-        <v>147</v>
-      </c>
-      <c r="C168" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C168" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D168" s="33" t="s">
@@ -8643,7 +8667,7 @@
         <v>19</v>
       </c>
       <c r="H168" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I168" s="34">
         <f t="shared" si="16"/>
@@ -8659,10 +8683,10 @@
         <v>62</v>
       </c>
       <c r="M168" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N168" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
@@ -8670,9 +8694,9 @@
         <v>8</v>
       </c>
       <c r="B169" t="s">
-        <v>147</v>
-      </c>
-      <c r="C169" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C169" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D169" s="33" t="s">
@@ -8685,10 +8709,10 @@
         <v>19</v>
       </c>
       <c r="H169" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I169" s="34">
-        <f t="shared" ref="I169:I207" si="17">600+273</f>
+        <f t="shared" ref="I169:I171" si="17">600+273</f>
         <v>873</v>
       </c>
       <c r="J169" s="31">
@@ -8703,10 +8727,10 @@
         <v>44</v>
       </c>
       <c r="M169" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N169" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
@@ -8714,9 +8738,9 @@
         <v>8</v>
       </c>
       <c r="B170" t="s">
-        <v>147</v>
-      </c>
-      <c r="C170" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C170" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D170" s="33" t="s">
@@ -8729,7 +8753,7 @@
         <v>19</v>
       </c>
       <c r="H170" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I170" s="34">
         <f t="shared" si="17"/>
@@ -8747,10 +8771,10 @@
         <v>44</v>
       </c>
       <c r="M170" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N170" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
@@ -8758,9 +8782,9 @@
         <v>8</v>
       </c>
       <c r="B171" t="s">
-        <v>147</v>
-      </c>
-      <c r="C171" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C171" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D171" s="33" t="s">
@@ -8773,7 +8797,7 @@
         <v>19</v>
       </c>
       <c r="H171" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I171" s="34">
         <f t="shared" si="17"/>
@@ -8789,10 +8813,10 @@
         <v>62</v>
       </c>
       <c r="M171" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N171" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
@@ -8800,9 +8824,9 @@
         <v>8</v>
       </c>
       <c r="B172" t="s">
-        <v>147</v>
-      </c>
-      <c r="C172" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C172" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D172" s="33" t="s">
@@ -8815,10 +8839,10 @@
         <v>19</v>
       </c>
       <c r="H172" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I172" s="34">
-        <f t="shared" ref="I172:I207" si="18">800+273</f>
+        <f t="shared" ref="I172:I174" si="18">800+273</f>
         <v>1073</v>
       </c>
       <c r="J172" s="31">
@@ -8833,10 +8857,10 @@
         <v>44</v>
       </c>
       <c r="M172" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N172" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
@@ -8844,9 +8868,9 @@
         <v>8</v>
       </c>
       <c r="B173" t="s">
-        <v>147</v>
-      </c>
-      <c r="C173" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C173" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D173" s="33" t="s">
@@ -8859,7 +8883,7 @@
         <v>19</v>
       </c>
       <c r="H173" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I173" s="34">
         <f t="shared" si="18"/>
@@ -8877,10 +8901,10 @@
         <v>44</v>
       </c>
       <c r="M173" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N173" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
@@ -8888,9 +8912,9 @@
         <v>8</v>
       </c>
       <c r="B174" t="s">
-        <v>147</v>
-      </c>
-      <c r="C174" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C174" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D174" s="33" t="s">
@@ -8903,7 +8927,7 @@
         <v>19</v>
       </c>
       <c r="H174" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I174" s="34">
         <f t="shared" si="18"/>
@@ -8919,10 +8943,10 @@
         <v>62</v>
       </c>
       <c r="M174" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N174" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
@@ -8930,9 +8954,9 @@
         <v>8</v>
       </c>
       <c r="B175" t="s">
-        <v>147</v>
-      </c>
-      <c r="C175" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C175" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D175" s="33" t="s">
@@ -8945,10 +8969,10 @@
         <v>19</v>
       </c>
       <c r="H175" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I175" s="34">
-        <f t="shared" ref="I175:I207" si="19">1000+273</f>
+        <f t="shared" ref="I175:I177" si="19">1000+273</f>
         <v>1273</v>
       </c>
       <c r="J175" s="31">
@@ -8963,10 +8987,10 @@
         <v>44</v>
       </c>
       <c r="M175" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N175" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
@@ -8974,9 +8998,9 @@
         <v>8</v>
       </c>
       <c r="B176" t="s">
-        <v>147</v>
-      </c>
-      <c r="C176" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C176" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D176" s="33" t="s">
@@ -8989,7 +9013,7 @@
         <v>19</v>
       </c>
       <c r="H176" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I176" s="34">
         <f t="shared" si="19"/>
@@ -9007,10 +9031,10 @@
         <v>44</v>
       </c>
       <c r="M176" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N176" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
@@ -9018,9 +9042,9 @@
         <v>8</v>
       </c>
       <c r="B177" t="s">
-        <v>147</v>
-      </c>
-      <c r="C177" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C177" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D177" s="33" t="s">
@@ -9033,7 +9057,7 @@
         <v>19</v>
       </c>
       <c r="H177" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I177" s="34">
         <f t="shared" si="19"/>
@@ -9049,14 +9073,14 @@
         <v>62</v>
       </c>
       <c r="M177" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N177" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C178" s="33"/>
+      <c r="C178" s="70"/>
       <c r="D178" s="33"/>
       <c r="F178" s="32"/>
       <c r="G178" s="33"/>
@@ -9068,7 +9092,7 @@
       <c r="N178" s="19"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C179" s="33"/>
+      <c r="C179" s="70"/>
       <c r="D179" s="33"/>
       <c r="F179" s="33"/>
       <c r="G179" s="33"/>
@@ -9080,7 +9104,7 @@
       <c r="N179" s="19"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C180" s="33"/>
+      <c r="C180" s="70"/>
       <c r="D180" s="33"/>
       <c r="F180" s="32"/>
       <c r="G180" s="33"/>
@@ -9092,7 +9116,7 @@
       <c r="N180" s="19"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C181" s="33"/>
+      <c r="C181" s="70"/>
       <c r="D181" s="33"/>
       <c r="F181" s="32"/>
       <c r="G181" s="33"/>
@@ -9104,7 +9128,7 @@
       <c r="N181" s="19"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C182" s="33"/>
+      <c r="C182" s="70"/>
       <c r="D182" s="33"/>
       <c r="F182" s="33"/>
       <c r="G182" s="33"/>
@@ -9116,7 +9140,7 @@
       <c r="N182" s="19"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C183" s="33"/>
+      <c r="C183" s="70"/>
       <c r="D183" s="33"/>
       <c r="F183" s="32"/>
       <c r="G183" s="33"/>
@@ -9128,7 +9152,7 @@
       <c r="N183" s="19"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C184" s="33"/>
+      <c r="C184" s="70"/>
       <c r="D184" s="33"/>
       <c r="F184" s="32"/>
       <c r="G184" s="33"/>
@@ -9140,7 +9164,7 @@
       <c r="N184" s="19"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C185" s="33"/>
+      <c r="C185" s="70"/>
       <c r="D185" s="33"/>
       <c r="F185" s="33"/>
       <c r="G185" s="33"/>
@@ -9152,7 +9176,7 @@
       <c r="N185" s="19"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C186" s="33"/>
+      <c r="C186" s="70"/>
       <c r="D186" s="33"/>
       <c r="F186" s="32"/>
       <c r="G186" s="33"/>
@@ -9164,7 +9188,7 @@
       <c r="N186" s="19"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C187" s="33"/>
+      <c r="C187" s="70"/>
       <c r="D187" s="33"/>
       <c r="F187" s="32"/>
       <c r="G187" s="33"/>
@@ -9176,7 +9200,7 @@
       <c r="N187" s="19"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C188" s="33"/>
+      <c r="C188" s="70"/>
       <c r="D188" s="33"/>
       <c r="F188" s="33"/>
       <c r="G188" s="33"/>
@@ -9188,7 +9212,7 @@
       <c r="N188" s="19"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C189" s="33"/>
+      <c r="C189" s="70"/>
       <c r="D189" s="33"/>
       <c r="F189" s="32"/>
       <c r="G189" s="33"/>
@@ -9200,7 +9224,7 @@
       <c r="N189" s="19"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C190" s="33"/>
+      <c r="C190" s="70"/>
       <c r="D190" s="33"/>
       <c r="F190" s="32"/>
       <c r="G190" s="33"/>
@@ -9212,7 +9236,7 @@
       <c r="N190" s="19"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C191" s="33"/>
+      <c r="C191" s="70"/>
       <c r="D191" s="33"/>
       <c r="F191" s="33"/>
       <c r="G191" s="33"/>
@@ -9224,7 +9248,7 @@
       <c r="N191" s="19"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C192" s="33"/>
+      <c r="C192" s="70"/>
       <c r="D192" s="33"/>
       <c r="F192" s="32"/>
       <c r="G192" s="33"/>
@@ -9236,7 +9260,7 @@
       <c r="N192" s="19"/>
     </row>
     <row r="193" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C193" s="33"/>
+      <c r="C193" s="70"/>
       <c r="D193" s="33"/>
       <c r="F193" s="32"/>
       <c r="G193" s="33"/>
@@ -9248,7 +9272,7 @@
       <c r="N193" s="19"/>
     </row>
     <row r="194" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C194" s="33"/>
+      <c r="C194" s="70"/>
       <c r="D194" s="33"/>
       <c r="F194" s="33"/>
       <c r="G194" s="33"/>
@@ -9260,7 +9284,7 @@
       <c r="N194" s="19"/>
     </row>
     <row r="195" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C195" s="33"/>
+      <c r="C195" s="70"/>
       <c r="D195" s="33"/>
       <c r="F195" s="32"/>
       <c r="G195" s="33"/>
@@ -9272,7 +9296,7 @@
       <c r="N195" s="19"/>
     </row>
     <row r="196" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C196" s="33"/>
+      <c r="C196" s="70"/>
       <c r="D196" s="33"/>
       <c r="F196" s="32"/>
       <c r="G196" s="33"/>
@@ -9284,7 +9308,7 @@
       <c r="N196" s="19"/>
     </row>
     <row r="197" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C197" s="33"/>
+      <c r="C197" s="70"/>
       <c r="D197" s="33"/>
       <c r="F197" s="33"/>
       <c r="G197" s="33"/>
@@ -9296,7 +9320,7 @@
       <c r="N197" s="19"/>
     </row>
     <row r="198" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C198" s="33"/>
+      <c r="C198" s="70"/>
       <c r="D198" s="33"/>
       <c r="F198" s="32"/>
       <c r="G198" s="33"/>
@@ -9308,7 +9332,7 @@
       <c r="N198" s="19"/>
     </row>
     <row r="199" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C199" s="33"/>
+      <c r="C199" s="70"/>
       <c r="D199" s="33"/>
       <c r="F199" s="32"/>
       <c r="G199" s="33"/>
@@ -9320,7 +9344,7 @@
       <c r="N199" s="19"/>
     </row>
     <row r="200" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C200" s="33"/>
+      <c r="C200" s="70"/>
       <c r="D200" s="33"/>
       <c r="F200" s="33"/>
       <c r="G200" s="33"/>
@@ -9332,7 +9356,7 @@
       <c r="N200" s="19"/>
     </row>
     <row r="201" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C201" s="33"/>
+      <c r="C201" s="70"/>
       <c r="D201" s="33"/>
       <c r="F201" s="32"/>
       <c r="G201" s="33"/>
@@ -9344,7 +9368,7 @@
       <c r="N201" s="19"/>
     </row>
     <row r="202" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C202" s="33"/>
+      <c r="C202" s="70"/>
       <c r="D202" s="33"/>
       <c r="F202" s="32"/>
       <c r="G202" s="33"/>
@@ -9356,7 +9380,7 @@
       <c r="N202" s="19"/>
     </row>
     <row r="203" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C203" s="33"/>
+      <c r="C203" s="70"/>
       <c r="D203" s="33"/>
       <c r="F203" s="33"/>
       <c r="G203" s="33"/>
@@ -9368,7 +9392,7 @@
       <c r="N203" s="19"/>
     </row>
     <row r="204" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C204" s="33"/>
+      <c r="C204" s="70"/>
       <c r="D204" s="33"/>
       <c r="F204" s="32"/>
       <c r="G204" s="33"/>
@@ -9380,7 +9404,7 @@
       <c r="N204" s="19"/>
     </row>
     <row r="205" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C205" s="33"/>
+      <c r="C205" s="70"/>
       <c r="D205" s="33"/>
       <c r="F205" s="32"/>
       <c r="G205" s="33"/>
@@ -9392,7 +9416,7 @@
       <c r="N205" s="19"/>
     </row>
     <row r="206" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C206" s="33"/>
+      <c r="C206" s="70"/>
       <c r="D206" s="33"/>
       <c r="F206" s="33"/>
       <c r="G206" s="33"/>
@@ -9404,7 +9428,7 @@
       <c r="N206" s="19"/>
     </row>
     <row r="207" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C207" s="33"/>
+      <c r="C207" s="70"/>
       <c r="D207" s="33"/>
       <c r="F207" s="32"/>
       <c r="G207" s="33"/>
@@ -9416,7 +9440,7 @@
       <c r="N207" s="19"/>
     </row>
     <row r="208" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C208" s="33"/>
+      <c r="C208" s="70"/>
       <c r="D208" s="33"/>
       <c r="F208" s="33"/>
       <c r="G208" s="33"/>
@@ -9428,7 +9452,7 @@
       <c r="N208" s="19"/>
     </row>
     <row r="209" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C209" s="33"/>
+      <c r="C209" s="70"/>
       <c r="D209" s="33"/>
       <c r="F209" s="33"/>
       <c r="G209" s="33"/>
@@ -9440,7 +9464,7 @@
       <c r="N209" s="19"/>
     </row>
     <row r="210" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C210" s="33"/>
+      <c r="C210" s="70"/>
       <c r="D210" s="33"/>
       <c r="F210" s="33"/>
       <c r="G210" s="33"/>
@@ -9452,7 +9476,7 @@
       <c r="N210" s="19"/>
     </row>
     <row r="211" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C211" s="33"/>
+      <c r="C211" s="70"/>
       <c r="D211" s="33"/>
       <c r="F211" s="33"/>
       <c r="G211" s="33"/>
@@ -9464,7 +9488,7 @@
       <c r="N211" s="19"/>
     </row>
     <row r="212" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C212" s="33"/>
+      <c r="C212" s="70"/>
       <c r="D212" s="33"/>
       <c r="F212" s="33"/>
       <c r="G212" s="33"/>
@@ -9476,7 +9500,7 @@
       <c r="N212" s="19"/>
     </row>
     <row r="213" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C213" s="33"/>
+      <c r="C213" s="70"/>
       <c r="D213" s="33"/>
       <c r="F213" s="33"/>
       <c r="G213" s="33"/>
@@ -9488,7 +9512,7 @@
       <c r="N213" s="19"/>
     </row>
     <row r="214" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C214" s="33"/>
+      <c r="C214" s="70"/>
       <c r="D214" s="33"/>
       <c r="F214" s="33"/>
       <c r="G214" s="33"/>
@@ -9500,7 +9524,7 @@
       <c r="N214" s="19"/>
     </row>
     <row r="215" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C215" s="33"/>
+      <c r="C215" s="70"/>
       <c r="D215" s="33"/>
       <c r="F215" s="33"/>
       <c r="G215" s="33"/>
@@ -9512,7 +9536,7 @@
       <c r="N215" s="19"/>
     </row>
     <row r="216" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C216" s="33"/>
+      <c r="C216" s="70"/>
       <c r="D216" s="33"/>
       <c r="F216" s="33"/>
       <c r="G216" s="33"/>
@@ -9524,7 +9548,7 @@
       <c r="N216" s="19"/>
     </row>
     <row r="217" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C217" s="33"/>
+      <c r="C217" s="70"/>
       <c r="D217" s="33"/>
       <c r="F217" s="33"/>
       <c r="G217" s="33"/>
@@ -9546,11 +9570,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F2:N3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="B8:E8"/>
@@ -9565,6 +9584,11 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
